--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.08690000000001</v>
+        <v>-22.06740000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3665</v>
+        <v>16.2207</v>
       </c>
     </row>
     <row r="4">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.20629999999998</v>
+        <v>-20.35069999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.42659999999998</v>
+        <v>-20.51959999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.54440000000001</v>
+        <v>16.578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.78339999999999</v>
+        <v>-21.71819999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.837299999999998</v>
+        <v>6.833000000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.915199999999999</v>
+        <v>5.711800000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.8461</v>
+        <v>9.686000000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.316000000000005</v>
+        <v>5.553900000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.6939</v>
+        <v>5.706699999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.2028</v>
+        <v>5.638699999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.86849999999999</v>
+        <v>-21.9205</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.509399999999999</v>
+        <v>6.129999999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.712299999999999</v>
+        <v>5.277199999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.4815</v>
+        <v>-22.63030000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>4.926199999999997</v>
+        <v>4.840199999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.56590000000001</v>
+        <v>16.59809999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0668</v>
+        <v>-22.1964</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.5194</v>
+        <v>16.52930000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58949999999998</v>
+        <v>-21.61519999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.37500000000001</v>
+        <v>17.66630000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.281899999999998</v>
+        <v>8.706899999999994</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5803</v>
+        <v>-20.76890000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8683</v>
+        <v>-21.9547</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.66410000000001</v>
+        <v>16.71000000000002</v>
       </c>
     </row>
     <row r="87">
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.959299999999994</v>
+        <v>4.982399999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.882300000000003</v>
+        <v>5.935800000000004</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.26059999999999</v>
+        <v>-21.3905</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.7416</v>
+        <v>16.1046</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.38260000000001</v>
+        <v>16.41760000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.68579999999999</v>
+        <v>16.61689999999998</v>
       </c>
     </row>
   </sheetData>
